--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -1285,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1449,7 +1449,7 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="E10" s="20"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7">
@@ -1479,7 +1479,7 @@
         <v>0.309</v>
       </c>
       <c r="E12" s="21"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7">
@@ -1599,7 +1599,7 @@
         <v>0.25800000000000001</v>
       </c>
       <c r="E20" s="21"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7">
@@ -1854,7 +1854,7 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="E37" s="20"/>
-      <c r="F37" s="8"/>
+      <c r="F37" s="19"/>
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7">
@@ -2439,7 +2439,7 @@
         <v>0.27800000000000002</v>
       </c>
       <c r="E76" s="20"/>
-      <c r="F76" s="8"/>
+      <c r="F76" s="19"/>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7">
@@ -2709,7 +2709,7 @@
         <v>0.221</v>
       </c>
       <c r="E94" s="21"/>
-      <c r="F94" s="8"/>
+      <c r="F94" s="19"/>
       <c r="G94" s="9"/>
     </row>
     <row r="95" spans="1:7">
@@ -2724,7 +2724,7 @@
         <v>0.222</v>
       </c>
       <c r="E95" s="21"/>
-      <c r="F95" s="8"/>
+      <c r="F95" s="19"/>
       <c r="G95" s="9"/>
     </row>
     <row r="96" spans="1:7">
@@ -2754,7 +2754,7 @@
         <v>0.29399999999999998</v>
       </c>
       <c r="E97" s="22"/>
-      <c r="F97" s="8"/>
+      <c r="F97" s="19"/>
       <c r="G97" s="9"/>
     </row>
     <row r="98" spans="1:7">
@@ -2949,7 +2949,7 @@
         <v>0.247</v>
       </c>
       <c r="E110" s="21"/>
-      <c r="F110" s="8"/>
+      <c r="F110" s="19"/>
       <c r="G110" s="9"/>
     </row>
     <row r="111" spans="1:7">
@@ -3054,7 +3054,7 @@
         <v>0.27400000000000002</v>
       </c>
       <c r="E117" s="21"/>
-      <c r="F117" s="8"/>
+      <c r="F117" s="19"/>
       <c r="G117" s="9"/>
     </row>
     <row r="118" spans="1:7">
@@ -3279,7 +3279,7 @@
         <v>0.215</v>
       </c>
       <c r="E132" s="20"/>
-      <c r="F132" s="8"/>
+      <c r="F132" s="21"/>
       <c r="G132" s="9"/>
     </row>
     <row r="133" spans="1:7">
@@ -3294,7 +3294,7 @@
         <v>0.314</v>
       </c>
       <c r="E133" s="20"/>
-      <c r="F133" s="8"/>
+      <c r="F133" s="21"/>
       <c r="G133" s="9"/>
     </row>
     <row r="134" spans="1:7">
@@ -3579,7 +3579,7 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="E152" s="21"/>
-      <c r="F152" s="8"/>
+      <c r="F152" s="19"/>
       <c r="G152" s="9"/>
     </row>
     <row r="153" spans="1:7">

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31200" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Google" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="379">
   <si>
     <t>Maximum Product Subarray</t>
   </si>
@@ -496,17 +497,677 @@
   </si>
   <si>
     <t>Column7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difficulty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequency </t>
+  </si>
+  <si>
+    <t>Design TinyURL</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Longest Absolute File Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K Empty Slots </t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Closest Time </t>
+  </si>
+  <si>
+    <t>License Key Formatting</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Substring with At Most K Distinct Characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range Sum Query 2D - Mutable </t>
+  </si>
+  <si>
+    <t>Repeated String Match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moving Average from Data Stream </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Tree Longest Consecutive Sequence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentence Screen Fitting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zigzag Iterator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Squares </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bomb Enemy </t>
+  </si>
+  <si>
+    <t>Decode String</t>
+  </si>
+  <si>
+    <t>UTF-8 Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing Ranges </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Vacation Days </t>
+  </si>
+  <si>
+    <t>Longest Univalue Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android Unlock Patterns </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Bold Tag in String </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortest Distance from All Buildings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encode and Decode Strings </t>
+  </si>
+  <si>
+    <t>Game of Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique Word Abbreviation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Islands II </t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiggle Sort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3Sum Smaller </t>
+  </si>
+  <si>
+    <t>Evaluate Division</t>
+  </si>
+  <si>
+    <t>The Skyline Problem</t>
+  </si>
+  <si>
+    <t>Longest Increasing Path in a Matrix</t>
+  </si>
+  <si>
+    <t>Reverse Vowels of a String</t>
+  </si>
+  <si>
+    <t>Queue Reconstruction by Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Substring with At Most Two Distinct Characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strobogrammatic Number </t>
+  </si>
+  <si>
+    <t>Perfect Squares</t>
+  </si>
+  <si>
+    <t>Pacific Atlantic Water Flow</t>
+  </si>
+  <si>
+    <t>Peeking Iterator</t>
+  </si>
+  <si>
+    <t>Longest Word in Dictionary through Deleting</t>
+  </si>
+  <si>
+    <t>Summary Ranges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strobogrammatic Number II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint Fence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flip Game II </t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encode String with Shortest Length </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group Shifted Strings </t>
+  </si>
+  <si>
+    <t>Perfect Rectangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walls and Gates </t>
+  </si>
+  <si>
+    <t>Trapping Rain Water II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Hit Counter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Maze II </t>
+  </si>
+  <si>
+    <t>Island Perimeter</t>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>Binary Watch</t>
+  </si>
+  <si>
+    <t>Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generalized Abbreviation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort Transformed Array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentence Similarity II </t>
+  </si>
+  <si>
+    <t>Flatten Nested List Iterator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palindrome Permutation </t>
+  </si>
+  <si>
+    <t>Count of Smaller Numbers After Self</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Unique Word Abbreviation </t>
+  </si>
+  <si>
+    <t>Find the Difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Rooms II </t>
+  </si>
+  <si>
+    <t>H-Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alien Dictionary </t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read N Characters Given Read4 II - Call multiple times </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Maze </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimal Account Balancing </t>
+  </si>
+  <si>
+    <t>Add Strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flip Game </t>
+  </si>
+  <si>
+    <t>24 Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closest Binary Search Tree Value </t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus One Linked List </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Permutation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logger Rate Limiter </t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentence Similarity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Window Subsequence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rearrange String k Distance Apart </t>
+  </si>
+  <si>
+    <t>Maximum Product of Word Lengths</t>
+  </si>
+  <si>
+    <t>Nth Digit</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t>Diagonal Traverse</t>
+  </si>
+  <si>
+    <t>Word Search II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output Contest Matches </t>
+  </si>
+  <si>
+    <t>Find K Pairs with Smallest Sums</t>
+  </si>
+  <si>
+    <t>Wiggle Sort II</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid Word Square </t>
+  </si>
+  <si>
+    <t>Reconstruct Itinerary</t>
+  </si>
+  <si>
+    <t>Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flatten 2D Vector </t>
+  </si>
+  <si>
+    <t>Redundant Connection</t>
+  </si>
+  <si>
+    <t>Student Attendance Record II</t>
+  </si>
+  <si>
+    <t>Erect the Fence</t>
+  </si>
+  <si>
+    <t>Fraction to Recurring Decimal</t>
+  </si>
+  <si>
+    <t>Basic Calculator</t>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>Longest Palindrome</t>
+  </si>
+  <si>
+    <t>Max Sum of Rectangle No Larger Than K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Line of Consecutive One in Matrix </t>
+  </si>
+  <si>
+    <t>LFU Cache</t>
+  </si>
+  <si>
+    <t>My Calendar I</t>
+  </si>
+  <si>
+    <t>Count of Range Sum</t>
+  </si>
+  <si>
+    <t>Maximum XOR of Two Numbers in an Array</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Palindrome Pairs</t>
+  </si>
+  <si>
+    <t>Implement Magic Dictionary</t>
+  </si>
+  <si>
+    <t>Next Greater Element II</t>
+  </si>
+  <si>
+    <t>Power of Two</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>Russian Doll Envelopes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Phone Directory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Snake Game </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Tic-Tac-Toe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence Reconstruction </t>
+  </si>
+  <si>
+    <t>Find Duplicate Subtrees</t>
+  </si>
+  <si>
+    <t>Linked List Random Node</t>
+  </si>
+  <si>
+    <t>Find Mode in Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Remove K Digits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid Word Abbreviation </t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range Addition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closest Binary Search Tree Value II </t>
+  </si>
+  <si>
+    <t>Heaters</t>
+  </si>
+  <si>
+    <t>Shortest Palindrome</t>
+  </si>
+  <si>
+    <t>Combination Sum IV</t>
+  </si>
+  <si>
+    <t>Student Attendance Record I</t>
+  </si>
+  <si>
+    <t>Minimum Absolute Difference in BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest Rectangle Enclosing Black Pixels </t>
+  </si>
+  <si>
+    <t>Expression Add Operators</t>
+  </si>
+  <si>
+    <t>First Unique Character in a String</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>Repeated Substring Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line Reflection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph Valid Tree </t>
+  </si>
+  <si>
+    <t>Predict the Winner</t>
+  </si>
+  <si>
+    <t>Integer Replacement</t>
+  </si>
+  <si>
+    <t>Create Maximum Number</t>
+  </si>
+  <si>
+    <t>01 Matrix</t>
+  </si>
+  <si>
+    <t>Largest Divisible Subset</t>
+  </si>
+  <si>
+    <t>Super Ugly Number</t>
+  </si>
+  <si>
+    <t>Verify Preorder Serialization of a Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Connected Components in an Undirected Graph </t>
+  </si>
+  <si>
+    <t>Minimum Height Trees</t>
+  </si>
+  <si>
+    <t>Sort Characters By Frequency</t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower</t>
+  </si>
+  <si>
+    <t>Find All Numbers Disappeared in an Array</t>
+  </si>
+  <si>
+    <t>Power of Three</t>
+  </si>
+  <si>
+    <t>Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>Cracking the Safe</t>
+  </si>
+  <si>
+    <t>Shortest Completing Word</t>
+  </si>
+  <si>
+    <t>Largest Number Greater Than Twice of Others</t>
+  </si>
+  <si>
+    <t>Daily Temperatures</t>
+  </si>
+  <si>
+    <t>My Calendar III</t>
+  </si>
+  <si>
+    <t>My Calendar II</t>
+  </si>
+  <si>
+    <t>Number of Atoms</t>
+  </si>
+  <si>
+    <t>Find K-th Smallest Pair Distance</t>
+  </si>
+  <si>
+    <t>Maximum Sum of 3 Non-Overlapping Subarrays</t>
+  </si>
+  <si>
+    <t>Redundant Connection II</t>
+  </si>
+  <si>
+    <t>Kth Smallest Number in Multiplication Table</t>
+  </si>
+  <si>
+    <t>Beautiful Arrangement II</t>
+  </si>
+  <si>
+    <t>Non-decreasing Array</t>
+  </si>
+  <si>
+    <t>Split Array into Consecutive Subsequences</t>
+  </si>
+  <si>
+    <t>Find K Closest Elements</t>
+  </si>
+  <si>
+    <t>Judge Route Circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coin Path </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Keys Keyboard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Average Subarray II </t>
+  </si>
+  <si>
+    <t>Maximum Average Subarray I</t>
+  </si>
+  <si>
+    <t>Shopping Offers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Compressed String Iterator </t>
+  </si>
+  <si>
+    <t>Delete Operation for Two Strings</t>
+  </si>
+  <si>
+    <t>Shortest Unsorted Continuous Subarray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median Employee Salary </t>
+  </si>
+  <si>
+    <t>Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Tree Longest Consecutive Sequence II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boundary of Binary Tree </t>
+  </si>
+  <si>
+    <t>Reverse String II</t>
+  </si>
+  <si>
+    <t>Encode and Decode TinyURL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lonely Pixel II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lonely Pixel I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Abbreviation </t>
+  </si>
+  <si>
+    <t>Beautiful Arrangement</t>
+  </si>
+  <si>
+    <t>Longest Uncommon Subsequence II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Uncommon Subsequence I </t>
+  </si>
+  <si>
+    <t>Detect Capital</t>
+  </si>
+  <si>
+    <t>Freedom Trail</t>
+  </si>
+  <si>
+    <t>Relative Ranks</t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+  </si>
+  <si>
+    <t>Reverse Pairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Consecutive Ones II </t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones</t>
+  </si>
+  <si>
+    <t>Smallest Good Base</t>
+  </si>
+  <si>
+    <t>Magical String</t>
+  </si>
+  <si>
+    <t>Sliding Window Median</t>
+  </si>
+  <si>
+    <t>Ones and Zeroes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convex Polygon </t>
+  </si>
+  <si>
+    <t>Number of Boomerangs</t>
+  </si>
+  <si>
+    <t>Count Numbers with Unique Digits</t>
+  </si>
+  <si>
+    <t>Patching Array</t>
+  </si>
+  <si>
+    <t>Remove Duplicate Letters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Tree Vertical Order Traversal </t>
+  </si>
+  <si>
+    <t>Burst Balloons</t>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+  <si>
+    <t>列4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -514,14 +1175,29 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -682,7 +1358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -730,12 +1406,49 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -825,7 +1538,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yy/m/d"/>
+      <numFmt numFmtId="176" formatCode="yy/m/d"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -946,18 +1659,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G153" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G153" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:G153"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Column1" dataDxfId="6"/>
-    <tableColumn id="2" name="Column2" dataDxfId="5" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="Column3" dataDxfId="4"/>
-    <tableColumn id="4" name="Column4" dataDxfId="3"/>
-    <tableColumn id="5" name="Column5" dataDxfId="2"/>
-    <tableColumn id="7" name="Column6" dataDxfId="1"/>
-    <tableColumn id="8" name="Column7" dataDxfId="0"/>
+    <tableColumn id="1" name="Column1" dataDxfId="11"/>
+    <tableColumn id="2" name="Column2" dataDxfId="10"/>
+    <tableColumn id="3" name="Column3" dataDxfId="9"/>
+    <tableColumn id="4" name="Column4" dataDxfId="8"/>
+    <tableColumn id="5" name="Column5" dataDxfId="7"/>
+    <tableColumn id="7" name="Column6" dataDxfId="6"/>
+    <tableColumn id="8" name="Column7" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:I228" totalsRowShown="0">
+  <autoFilter ref="A1:I228"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="# " dataDxfId="4"/>
+    <tableColumn id="2" name="Title " dataDxfId="3" dataCellStyle="超链接"/>
+    <tableColumn id="3" name="Acceptance " dataDxfId="2"/>
+    <tableColumn id="4" name="Difficulty " dataDxfId="1"/>
+    <tableColumn id="5" name="Frequency " dataDxfId="0"/>
+    <tableColumn id="6" name="列1"/>
+    <tableColumn id="7" name="列2"/>
+    <tableColumn id="8" name="列3"/>
+    <tableColumn id="9" name="列4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1285,7 +2016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
@@ -2007,7 +2738,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" ht="30">
       <c r="A48" s="10"/>
       <c r="B48" s="5" t="s">
         <v>46</v>
@@ -2022,7 +2753,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="30">
       <c r="A49" s="10"/>
       <c r="B49" s="5" t="s">
         <v>47</v>
@@ -3598,6 +4329,7 @@
       <c r="G153" s="16"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
@@ -3763,4 +4495,3697 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I228"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="30"/>
+    <col min="2" max="2" width="56.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="29">
+        <v>534</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="31">
+        <v>0</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="29">
+        <v>388</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0.373</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="29">
+        <v>683</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="29">
+        <v>681</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="31">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="29">
+        <v>482</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="31">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="29">
+        <v>340</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="31">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="29">
+        <v>308</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="31">
+        <v>0.246</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="29">
+        <v>686</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="31">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="29">
+        <v>346</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="31">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="29">
+        <v>298</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="31">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="29">
+        <v>418</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="31">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="29">
+        <v>281</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="31">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="29">
+        <v>425</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="31">
+        <v>0.438</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="29">
+        <v>361</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="31">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="29">
+        <v>394</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="31">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="29">
+        <v>393</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="31">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="29">
+        <v>163</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="31">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="29">
+        <v>66</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="31">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="29">
+        <v>568</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="31">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="29">
+        <v>687</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="31">
+        <v>0.34</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="29">
+        <v>351</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="31">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="29">
+        <v>616</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="31">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="29">
+        <v>317</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="31">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="29">
+        <v>271</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="31">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="26"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="29">
+        <v>289</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="31">
+        <v>0.371</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="29">
+        <v>288</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="31">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="26"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="29">
+        <v>305</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="31">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="26"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="29">
+        <v>200</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="31">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="26"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="29">
+        <v>280</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="31">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="26"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="29">
+        <v>259</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="31">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="26"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="29">
+        <v>399</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="31">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="26"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="29">
+        <v>218</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="31">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="26"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="29">
+        <v>329</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="31">
+        <v>0.37</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="26"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="29">
+        <v>345</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="31">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="26"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="29">
+        <v>406</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="31">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="26"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="29">
+        <v>159</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="31">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="26"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="29">
+        <v>246</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="31">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E38" s="26"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="29">
+        <v>279</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" s="31">
+        <v>0.376</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="26"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="29">
+        <v>417</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" s="31">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" s="26"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="29">
+        <v>56</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="31">
+        <v>0.312</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" s="26"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="29">
+        <v>284</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" s="31">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" s="26"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="29">
+        <v>524</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" s="31">
+        <v>0.434</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" s="26"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="29">
+        <v>228</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" s="31">
+        <v>0.311</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="26"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="29">
+        <v>247</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" s="31">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="26"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="29">
+        <v>276</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="31">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="26"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="29">
+        <v>294</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="31">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="26"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="29">
+        <v>297</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" s="31">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" s="26"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="29">
+        <v>471</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="31">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" s="26"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="29">
+        <v>249</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C50" s="31">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" s="26"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="29">
+        <v>391</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" s="31">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" s="26"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="29">
+        <v>42</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="31">
+        <v>0.373</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" s="26"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="29">
+        <v>286</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C53" s="31">
+        <v>0.45</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="26"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="29">
+        <v>407</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" s="31">
+        <v>0.378</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="26"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="29">
+        <v>146</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="31">
+        <v>0.19</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55" s="26"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="29">
+        <v>362</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="31">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" s="26"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="29">
+        <v>505</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" s="31">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57" s="26"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="29">
+        <v>463</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="31">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" s="26"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="29">
+        <v>380</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" s="31">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E59" s="26"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="29">
+        <v>401</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" s="31">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E60" s="26"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="29">
+        <v>295</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" s="31">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E61" s="26"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="29">
+        <v>320</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="C62" s="31">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" s="26"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="29">
+        <v>360</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" s="31">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" s="26"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="29">
+        <v>737</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" s="31">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E64" s="26"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="29">
+        <v>341</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="C65" s="31">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" s="26"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="29">
+        <v>266</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C66" s="31">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" s="26"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="29">
+        <v>315</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="C67" s="31">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E67" s="26"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="29">
+        <v>411</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="C68" s="31">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E68" s="26"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="29">
+        <v>389</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C69" s="31">
+        <v>0.51</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E69" s="26"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="29">
+        <v>253</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C70" s="31">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E70" s="26"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="29">
+        <v>274</v>
+      </c>
+      <c r="B71" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" s="31">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E71" s="26"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="29">
+        <v>269</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="C72" s="31">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E72" s="26"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="29">
+        <v>239</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C73" s="31">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E73" s="26"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="29">
+        <v>158</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" s="31">
+        <v>0.246</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E74" s="26"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="29">
+        <v>20</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="31">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E75" s="26"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="29">
+        <v>490</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C76" s="31">
+        <v>0.435</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E76" s="26"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="29">
+        <v>465</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C77" s="31">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E77" s="26"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="29">
+        <v>139</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="31">
+        <v>0.309</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E78" s="26"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="29">
+        <v>128</v>
+      </c>
+      <c r="B79" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="31">
+        <v>0.377</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E79" s="26"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="29">
+        <v>415</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" s="31">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E80" s="26"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="29">
+        <v>293</v>
+      </c>
+      <c r="B81" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="C81" s="31">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E81" s="26"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="29">
+        <v>679</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" s="31">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E82" s="26"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="29">
+        <v>270</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="C83" s="31">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E83" s="26"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="29">
+        <v>162</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C84" s="31">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E84" s="26"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="29">
+        <v>369</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="C85" s="31">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E85" s="26"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="29">
+        <v>23</v>
+      </c>
+      <c r="B86" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" s="31">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E86" s="26"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="29">
+        <v>484</v>
+      </c>
+      <c r="B87" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C87" s="31">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E87" s="26"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="29">
+        <v>359</v>
+      </c>
+      <c r="B88" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C88" s="31">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E88" s="26"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="29">
+        <v>230</v>
+      </c>
+      <c r="B89" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="C89" s="31">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="D89" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E89" s="26"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="29">
+        <v>734</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C90" s="31">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E90" s="26"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="29">
+        <v>727</v>
+      </c>
+      <c r="B91" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C91" s="31">
+        <v>0.309</v>
+      </c>
+      <c r="D91" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E91" s="26"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="29">
+        <v>358</v>
+      </c>
+      <c r="B92" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="C92" s="31">
+        <v>0.317</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E92" s="26"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="29">
+        <v>318</v>
+      </c>
+      <c r="B93" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="C93" s="31">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="D93" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E93" s="26"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="29">
+        <v>400</v>
+      </c>
+      <c r="B94" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="C94" s="31">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D94" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E94" s="26"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="29">
+        <v>240</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="C95" s="31">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E95" s="26"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="29">
+        <v>498</v>
+      </c>
+      <c r="B96" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="C96" s="31">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E96" s="26"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="29">
+        <v>10</v>
+      </c>
+      <c r="B97" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="31">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E97" s="26"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="29">
+        <v>212</v>
+      </c>
+      <c r="B98" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="C98" s="31">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E98" s="26"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="29">
+        <v>544</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="C99" s="31">
+        <v>0.71</v>
+      </c>
+      <c r="D99" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E99" s="26"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="29">
+        <v>54</v>
+      </c>
+      <c r="B100" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" s="31">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E100" s="26"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="29">
+        <v>4</v>
+      </c>
+      <c r="B101" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C101" s="31">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D101" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E101" s="26"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="29">
+        <v>373</v>
+      </c>
+      <c r="B102" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="C102" s="31">
+        <v>0.31</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E102" s="26"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="29">
+        <v>324</v>
+      </c>
+      <c r="B103" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C103" s="31">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E103" s="26"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="29">
+        <v>155</v>
+      </c>
+      <c r="B104" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="C104" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E104" s="26"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="29">
+        <v>422</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="C105" s="31">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E105" s="26"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="29">
+        <v>140</v>
+      </c>
+      <c r="B106" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="31">
+        <v>0.24</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E106" s="26"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="29">
+        <v>332</v>
+      </c>
+      <c r="B107" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="C107" s="31">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E107" s="26"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="29">
+        <v>173</v>
+      </c>
+      <c r="B108" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="C108" s="31">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E108" s="26"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="29">
+        <v>251</v>
+      </c>
+      <c r="B109" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C109" s="31">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E109" s="26"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="29">
+        <v>684</v>
+      </c>
+      <c r="B110" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="C110" s="31">
+        <v>0.41</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E110" s="26"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="29">
+        <v>17</v>
+      </c>
+      <c r="B111" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C111" s="31">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="D111" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E111" s="26"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="29">
+        <v>552</v>
+      </c>
+      <c r="B112" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="C112" s="31">
+        <v>0.313</v>
+      </c>
+      <c r="D112" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E112" s="26"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="29">
+        <v>587</v>
+      </c>
+      <c r="B113" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="C113" s="31">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="D113" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E113" s="26"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="29">
+        <v>166</v>
+      </c>
+      <c r="B114" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="C114" s="31">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D114" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E114" s="26"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="29">
+        <v>224</v>
+      </c>
+      <c r="B115" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="C115" s="31">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D115" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E115" s="26"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="29">
+        <v>22</v>
+      </c>
+      <c r="B116" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C116" s="31">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D116" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E116" s="26"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="29">
+        <v>543</v>
+      </c>
+      <c r="B117" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C117" s="31">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="D117" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E117" s="26"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="29">
+        <v>409</v>
+      </c>
+      <c r="B118" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C118" s="31">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="D118" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E118" s="26"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="29">
+        <v>31</v>
+      </c>
+      <c r="B119" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119" s="31">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E119" s="26"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="29">
+        <v>363</v>
+      </c>
+      <c r="B120" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="C120" s="31">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E120" s="26"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="29">
+        <v>562</v>
+      </c>
+      <c r="B121" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="C121" s="31">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E121" s="26"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="29">
+        <v>460</v>
+      </c>
+      <c r="B122" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="C122" s="31">
+        <v>0.246</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E122" s="26"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="29">
+        <v>57</v>
+      </c>
+      <c r="B123" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C123" s="31">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="D123" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E123" s="26"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="29">
+        <v>133</v>
+      </c>
+      <c r="B124" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" s="31">
+        <v>0.252</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E124" s="26"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="29">
+        <v>729</v>
+      </c>
+      <c r="B125" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="C125" s="31">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="D125" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E125" s="26"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="29">
+        <v>327</v>
+      </c>
+      <c r="B126" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="C126" s="31">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D126" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E126" s="26"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="29">
+        <v>421</v>
+      </c>
+      <c r="B127" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="C127" s="31">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="D127" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E127" s="26"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="29">
+        <v>208</v>
+      </c>
+      <c r="B128" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="C128" s="31">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="D128" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E128" s="26"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="29">
+        <v>336</v>
+      </c>
+      <c r="B129" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="C129" s="31">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E129" s="26"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="29">
+        <v>676</v>
+      </c>
+      <c r="B130" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="C130" s="31">
+        <v>0.497</v>
+      </c>
+      <c r="D130" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E130" s="26"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="29">
+        <v>503</v>
+      </c>
+      <c r="B131" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="C131" s="31">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E131" s="26"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="29">
+        <v>44</v>
+      </c>
+      <c r="B132" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C132" s="31">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="D132" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E132" s="26"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="29">
+        <v>50</v>
+      </c>
+      <c r="B133" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C133" s="31">
+        <v>0.26</v>
+      </c>
+      <c r="D133" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E133" s="26"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="29">
+        <v>231</v>
+      </c>
+      <c r="B134" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="C134" s="31">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="D134" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E134" s="26"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="29">
+        <v>309</v>
+      </c>
+      <c r="B135" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="C135" s="31">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="D135" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E135" s="26"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="29">
+        <v>354</v>
+      </c>
+      <c r="B136" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="C136" s="31">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D136" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E136" s="26"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="29">
+        <v>379</v>
+      </c>
+      <c r="B137" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="C137" s="31">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="D137" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E137" s="26"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="29">
+        <v>353</v>
+      </c>
+      <c r="B138" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="C138" s="31">
+        <v>0.27</v>
+      </c>
+      <c r="D138" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E138" s="26"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="29">
+        <v>348</v>
+      </c>
+      <c r="B139" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="C139" s="31">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="D139" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E139" s="26"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="29">
+        <v>444</v>
+      </c>
+      <c r="B140" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C140" s="31">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="D140" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E140" s="26"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="29">
+        <v>652</v>
+      </c>
+      <c r="B141" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="C141" s="31">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="D141" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E141" s="26"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="29">
+        <v>382</v>
+      </c>
+      <c r="B142" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="C142" s="31">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="D142" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E142" s="26"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="29">
+        <v>501</v>
+      </c>
+      <c r="B143" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="C143" s="31">
+        <v>0.378</v>
+      </c>
+      <c r="D143" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E143" s="26"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="29">
+        <v>402</v>
+      </c>
+      <c r="B144" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="C144" s="31">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="D144" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E144" s="26"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="29">
+        <v>408</v>
+      </c>
+      <c r="B145" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="C145" s="31">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="D145" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E145" s="26"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="29">
+        <v>375</v>
+      </c>
+      <c r="B146" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="C146" s="31">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="D146" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E146" s="26"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="29">
+        <v>370</v>
+      </c>
+      <c r="B147" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="C147" s="31">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="D147" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E147" s="26"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="29">
+        <v>272</v>
+      </c>
+      <c r="B148" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="C148" s="31">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="D148" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E148" s="26"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="29">
+        <v>475</v>
+      </c>
+      <c r="B149" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="C149" s="31">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="D149" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E149" s="26"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="29">
+        <v>214</v>
+      </c>
+      <c r="B150" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="C150" s="31">
+        <v>0.248</v>
+      </c>
+      <c r="D150" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E150" s="26"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="29">
+        <v>377</v>
+      </c>
+      <c r="B151" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="C151" s="31">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="D151" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E151" s="26"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="29">
+        <v>551</v>
+      </c>
+      <c r="B152" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="C152" s="31">
+        <v>0.443</v>
+      </c>
+      <c r="D152" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E152" s="26"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="29">
+        <v>530</v>
+      </c>
+      <c r="B153" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C153" s="31">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="D153" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E153" s="26"/>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="29">
+        <v>302</v>
+      </c>
+      <c r="B154" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="C154" s="31">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="D154" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E154" s="26"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="29">
+        <v>282</v>
+      </c>
+      <c r="B155" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="C155" s="31">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D155" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E155" s="26"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="29">
+        <v>387</v>
+      </c>
+      <c r="B156" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="C156" s="31">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="D156" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E156" s="26"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="29">
+        <v>378</v>
+      </c>
+      <c r="B157" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C157" s="31">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="D157" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E157" s="26"/>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="29">
+        <v>459</v>
+      </c>
+      <c r="B158" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="C158" s="31">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D158" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E158" s="26"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="29">
+        <v>356</v>
+      </c>
+      <c r="B159" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="C159" s="31">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="D159" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E159" s="26"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="29">
+        <v>261</v>
+      </c>
+      <c r="B160" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="C160" s="31">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D160" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E160" s="26"/>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="29">
+        <v>486</v>
+      </c>
+      <c r="B161" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="C161" s="31">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="D161" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E161" s="26"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="29">
+        <v>397</v>
+      </c>
+      <c r="B162" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="C162" s="31">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D162" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E162" s="26"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="29">
+        <v>321</v>
+      </c>
+      <c r="B163" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="C163" s="31">
+        <v>0.248</v>
+      </c>
+      <c r="D163" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E163" s="26"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="29">
+        <v>542</v>
+      </c>
+      <c r="B164" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="C164" s="31">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D164" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E164" s="26"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="29">
+        <v>368</v>
+      </c>
+      <c r="B165" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C165" s="31">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D165" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E165" s="26"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="29">
+        <v>313</v>
+      </c>
+      <c r="B166" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="C166" s="31">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="D166" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E166" s="26"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="29">
+        <v>331</v>
+      </c>
+      <c r="B167" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="C167" s="31">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="D167" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E167" s="26"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="29">
+        <v>323</v>
+      </c>
+      <c r="B168" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="C168" s="31">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="D168" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E168" s="26"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="29">
+        <v>310</v>
+      </c>
+      <c r="B169" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="C169" s="31">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="D169" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E169" s="26"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="29">
+        <v>451</v>
+      </c>
+      <c r="B170" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="C170" s="31">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="D170" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E170" s="26"/>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="29">
+        <v>374</v>
+      </c>
+      <c r="B171" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="C171" s="31">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="D171" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E171" s="26"/>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="29">
+        <v>448</v>
+      </c>
+      <c r="B172" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="C172" s="31">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="D172" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E172" s="26"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="29">
+        <v>326</v>
+      </c>
+      <c r="B173" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C173" s="31">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="D173" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E173" s="26"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="29">
+        <v>257</v>
+      </c>
+      <c r="B174" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="C174" s="31">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="D174" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E174" s="26"/>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="29">
+        <v>753</v>
+      </c>
+      <c r="B175" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="C175" s="31">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="D175" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E175" s="26"/>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="29">
+        <v>748</v>
+      </c>
+      <c r="B176" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="C176" s="31">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D176" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E176" s="26"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="29">
+        <v>747</v>
+      </c>
+      <c r="B177" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="C177" s="31">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="D177" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E177" s="26"/>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="29">
+        <v>739</v>
+      </c>
+      <c r="B178" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="C178" s="31">
+        <v>0.53</v>
+      </c>
+      <c r="D178" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E178" s="26"/>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="29">
+        <v>732</v>
+      </c>
+      <c r="B179" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="C179" s="31">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="D179" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E179" s="26"/>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="29">
+        <v>731</v>
+      </c>
+      <c r="B180" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="C180" s="31">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="D180" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E180" s="26"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="29">
+        <v>726</v>
+      </c>
+      <c r="B181" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="C181" s="31">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="D181" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E181" s="26"/>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="29">
+        <v>719</v>
+      </c>
+      <c r="B182" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="C182" s="31">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="D182" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E182" s="26"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="29">
+        <v>689</v>
+      </c>
+      <c r="B183" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="C183" s="31">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D183" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E183" s="26"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="29">
+        <v>685</v>
+      </c>
+      <c r="B184" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="C184" s="31">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D184" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E184" s="26"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="29">
+        <v>668</v>
+      </c>
+      <c r="B185" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="C185" s="31">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="D185" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E185" s="26"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="29">
+        <v>667</v>
+      </c>
+      <c r="B186" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="C186" s="31">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="D186" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E186" s="26"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="29">
+        <v>665</v>
+      </c>
+      <c r="B187" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="C187" s="31">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="D187" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E187" s="26"/>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="29">
+        <v>659</v>
+      </c>
+      <c r="B188" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="C188" s="31">
+        <v>0.36</v>
+      </c>
+      <c r="D188" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E188" s="26"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="29">
+        <v>658</v>
+      </c>
+      <c r="B189" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="C189" s="31">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D189" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E189" s="26"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="29">
+        <v>657</v>
+      </c>
+      <c r="B190" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="C190" s="31">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="D190" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E190" s="26"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="29">
+        <v>656</v>
+      </c>
+      <c r="B191" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="C191" s="31">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D191" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E191" s="26"/>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="29">
+        <v>651</v>
+      </c>
+      <c r="B192" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="C192" s="31">
+        <v>0.49</v>
+      </c>
+      <c r="D192" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E192" s="26"/>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="29">
+        <v>644</v>
+      </c>
+      <c r="B193" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="C193" s="31">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="D193" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E193" s="26"/>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="29">
+        <v>643</v>
+      </c>
+      <c r="B194" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="C194" s="31">
+        <v>0.379</v>
+      </c>
+      <c r="D194" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E194" s="26"/>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="29">
+        <v>638</v>
+      </c>
+      <c r="B195" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="C195" s="31">
+        <v>0.437</v>
+      </c>
+      <c r="D195" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E195" s="26"/>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="29">
+        <v>604</v>
+      </c>
+      <c r="B196" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="C196" s="31">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="D196" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E196" s="26"/>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="29">
+        <v>583</v>
+      </c>
+      <c r="B197" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="C197" s="31">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="D197" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E197" s="26"/>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="29">
+        <v>581</v>
+      </c>
+      <c r="B198" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="C198" s="31">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="D198" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E198" s="26"/>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="29">
+        <v>569</v>
+      </c>
+      <c r="B199" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="C199" s="31">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D199" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E199" s="26"/>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="29">
+        <v>560</v>
+      </c>
+      <c r="B200" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="C200" s="31">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="D200" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E200" s="26"/>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="29">
+        <v>549</v>
+      </c>
+      <c r="B201" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="C201" s="31">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="D201" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E201" s="26"/>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="29">
+        <v>545</v>
+      </c>
+      <c r="B202" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="C202" s="31">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="D202" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E202" s="26"/>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="29">
+        <v>541</v>
+      </c>
+      <c r="B203" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="C203" s="31">
+        <v>0.438</v>
+      </c>
+      <c r="D203" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E203" s="26"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="29">
+        <v>535</v>
+      </c>
+      <c r="B204" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="C204" s="31">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="D204" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E204" s="26"/>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="29">
+        <v>533</v>
+      </c>
+      <c r="B205" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C205" s="31">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="D205" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E205" s="26"/>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="29">
+        <v>531</v>
+      </c>
+      <c r="B206" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="C206" s="31">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="D206" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E206" s="26"/>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="29">
+        <v>527</v>
+      </c>
+      <c r="B207" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="C207" s="31">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="D207" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E207" s="26"/>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="29">
+        <v>526</v>
+      </c>
+      <c r="B208" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="C208" s="31">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="D208" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E208" s="26"/>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="29">
+        <v>522</v>
+      </c>
+      <c r="B209" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="C209" s="31">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="D209" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E209" s="26"/>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="29">
+        <v>521</v>
+      </c>
+      <c r="B210" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="C210" s="31">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="D210" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E210" s="26"/>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="29">
+        <v>520</v>
+      </c>
+      <c r="B211" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="C211" s="31">
+        <v>0.52</v>
+      </c>
+      <c r="D211" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E211" s="26"/>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="29">
+        <v>514</v>
+      </c>
+      <c r="B212" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="C212" s="31">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="D212" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E212" s="26"/>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="29">
+        <v>506</v>
+      </c>
+      <c r="B213" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="C213" s="31">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D213" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E213" s="26"/>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="29">
+        <v>494</v>
+      </c>
+      <c r="B214" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="C214" s="31">
+        <v>0.438</v>
+      </c>
+      <c r="D214" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E214" s="26"/>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="29">
+        <v>493</v>
+      </c>
+      <c r="B215" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="C215" s="31">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="D215" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E215" s="26"/>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="29">
+        <v>487</v>
+      </c>
+      <c r="B216" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="C216" s="31">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="D216" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E216" s="26"/>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="29">
+        <v>485</v>
+      </c>
+      <c r="B217" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="C217" s="31">
+        <v>0.54</v>
+      </c>
+      <c r="D217" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E217" s="26"/>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="29">
+        <v>483</v>
+      </c>
+      <c r="B218" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="C218" s="31">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D218" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E218" s="26"/>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="29">
+        <v>481</v>
+      </c>
+      <c r="B219" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="C219" s="31">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="D219" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E219" s="26"/>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="29">
+        <v>480</v>
+      </c>
+      <c r="B220" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="C220" s="31">
+        <v>0.31</v>
+      </c>
+      <c r="D220" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E220" s="26"/>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="29">
+        <v>474</v>
+      </c>
+      <c r="B221" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="C221" s="31">
+        <v>0.39</v>
+      </c>
+      <c r="D221" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E221" s="26"/>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="29">
+        <v>469</v>
+      </c>
+      <c r="B222" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="C222" s="31">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D222" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E222" s="26"/>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="29">
+        <v>447</v>
+      </c>
+      <c r="B223" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="C223" s="31">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="D223" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E223" s="26"/>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="29">
+        <v>357</v>
+      </c>
+      <c r="B224" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="C224" s="31">
+        <v>0.46</v>
+      </c>
+      <c r="D224" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E224" s="26"/>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="29">
+        <v>330</v>
+      </c>
+      <c r="B225" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C225" s="31">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="D225" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E225" s="26"/>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="29">
+        <v>316</v>
+      </c>
+      <c r="B226" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="C226" s="31">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D226" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E226" s="26"/>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="29">
+        <v>314</v>
+      </c>
+      <c r="B227" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="C227" s="31">
+        <v>0.376</v>
+      </c>
+      <c r="D227" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E227" s="26"/>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="29">
+        <v>312</v>
+      </c>
+      <c r="B228" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="C228" s="31">
+        <v>0.433</v>
+      </c>
+      <c r="D228" s="26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
+    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B43" r:id="rId42"/>
+    <hyperlink ref="B44" r:id="rId43"/>
+    <hyperlink ref="B45" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B51" r:id="rId50"/>
+    <hyperlink ref="B52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
+    <hyperlink ref="B54" r:id="rId53"/>
+    <hyperlink ref="B55" r:id="rId54"/>
+    <hyperlink ref="B56" r:id="rId55"/>
+    <hyperlink ref="B57" r:id="rId56"/>
+    <hyperlink ref="B58" r:id="rId57"/>
+    <hyperlink ref="B59" r:id="rId58"/>
+    <hyperlink ref="B60" r:id="rId59"/>
+    <hyperlink ref="B61" r:id="rId60"/>
+    <hyperlink ref="B62" r:id="rId61"/>
+    <hyperlink ref="B63" r:id="rId62"/>
+    <hyperlink ref="B64" r:id="rId63"/>
+    <hyperlink ref="B65" r:id="rId64"/>
+    <hyperlink ref="B66" r:id="rId65"/>
+    <hyperlink ref="B67" r:id="rId66"/>
+    <hyperlink ref="B68" r:id="rId67"/>
+    <hyperlink ref="B69" r:id="rId68"/>
+    <hyperlink ref="B70" r:id="rId69"/>
+    <hyperlink ref="B71" r:id="rId70"/>
+    <hyperlink ref="B72" r:id="rId71"/>
+    <hyperlink ref="B73" r:id="rId72"/>
+    <hyperlink ref="B74" r:id="rId73"/>
+    <hyperlink ref="B75" r:id="rId74"/>
+    <hyperlink ref="B76" r:id="rId75"/>
+    <hyperlink ref="B77" r:id="rId76"/>
+    <hyperlink ref="B78" r:id="rId77"/>
+    <hyperlink ref="B79" r:id="rId78"/>
+    <hyperlink ref="B80" r:id="rId79"/>
+    <hyperlink ref="B81" r:id="rId80"/>
+    <hyperlink ref="B82" r:id="rId81"/>
+    <hyperlink ref="B83" r:id="rId82"/>
+    <hyperlink ref="B84" r:id="rId83"/>
+    <hyperlink ref="B85" r:id="rId84"/>
+    <hyperlink ref="B86" r:id="rId85"/>
+    <hyperlink ref="B87" r:id="rId86"/>
+    <hyperlink ref="B88" r:id="rId87"/>
+    <hyperlink ref="B89" r:id="rId88"/>
+    <hyperlink ref="B90" r:id="rId89"/>
+    <hyperlink ref="B91" r:id="rId90"/>
+    <hyperlink ref="B92" r:id="rId91"/>
+    <hyperlink ref="B93" r:id="rId92"/>
+    <hyperlink ref="B94" r:id="rId93"/>
+    <hyperlink ref="B95" r:id="rId94"/>
+    <hyperlink ref="B96" r:id="rId95"/>
+    <hyperlink ref="B97" r:id="rId96"/>
+    <hyperlink ref="B98" r:id="rId97"/>
+    <hyperlink ref="B99" r:id="rId98"/>
+    <hyperlink ref="B100" r:id="rId99"/>
+    <hyperlink ref="B101" r:id="rId100"/>
+    <hyperlink ref="B102" r:id="rId101"/>
+    <hyperlink ref="B103" r:id="rId102"/>
+    <hyperlink ref="B104" r:id="rId103"/>
+    <hyperlink ref="B105" r:id="rId104"/>
+    <hyperlink ref="B106" r:id="rId105"/>
+    <hyperlink ref="B107" r:id="rId106"/>
+    <hyperlink ref="B108" r:id="rId107"/>
+    <hyperlink ref="B109" r:id="rId108"/>
+    <hyperlink ref="B110" r:id="rId109"/>
+    <hyperlink ref="B111" r:id="rId110"/>
+    <hyperlink ref="B112" r:id="rId111"/>
+    <hyperlink ref="B113" r:id="rId112"/>
+    <hyperlink ref="B114" r:id="rId113"/>
+    <hyperlink ref="B115" r:id="rId114"/>
+    <hyperlink ref="B116" r:id="rId115"/>
+    <hyperlink ref="B117" r:id="rId116"/>
+    <hyperlink ref="B118" r:id="rId117"/>
+    <hyperlink ref="B119" r:id="rId118"/>
+    <hyperlink ref="B120" r:id="rId119"/>
+    <hyperlink ref="B121" r:id="rId120"/>
+    <hyperlink ref="B122" r:id="rId121"/>
+    <hyperlink ref="B123" r:id="rId122"/>
+    <hyperlink ref="B124" r:id="rId123"/>
+    <hyperlink ref="B125" r:id="rId124"/>
+    <hyperlink ref="B126" r:id="rId125"/>
+    <hyperlink ref="B127" r:id="rId126"/>
+    <hyperlink ref="B128" r:id="rId127"/>
+    <hyperlink ref="B129" r:id="rId128"/>
+    <hyperlink ref="B130" r:id="rId129"/>
+    <hyperlink ref="B131" r:id="rId130"/>
+    <hyperlink ref="B132" r:id="rId131"/>
+    <hyperlink ref="B133" r:id="rId132"/>
+    <hyperlink ref="B134" r:id="rId133"/>
+    <hyperlink ref="B135" r:id="rId134"/>
+    <hyperlink ref="B136" r:id="rId135"/>
+    <hyperlink ref="B137" r:id="rId136"/>
+    <hyperlink ref="B138" r:id="rId137"/>
+    <hyperlink ref="B139" r:id="rId138"/>
+    <hyperlink ref="B140" r:id="rId139"/>
+    <hyperlink ref="B141" r:id="rId140"/>
+    <hyperlink ref="B142" r:id="rId141"/>
+    <hyperlink ref="B143" r:id="rId142"/>
+    <hyperlink ref="B144" r:id="rId143"/>
+    <hyperlink ref="B145" r:id="rId144"/>
+    <hyperlink ref="B146" r:id="rId145"/>
+    <hyperlink ref="B147" r:id="rId146"/>
+    <hyperlink ref="B148" r:id="rId147"/>
+    <hyperlink ref="B149" r:id="rId148"/>
+    <hyperlink ref="B150" r:id="rId149"/>
+    <hyperlink ref="B151" r:id="rId150"/>
+    <hyperlink ref="B152" r:id="rId151"/>
+    <hyperlink ref="B153" r:id="rId152"/>
+    <hyperlink ref="B154" r:id="rId153"/>
+    <hyperlink ref="B155" r:id="rId154"/>
+    <hyperlink ref="B156" r:id="rId155"/>
+    <hyperlink ref="B157" r:id="rId156"/>
+    <hyperlink ref="B158" r:id="rId157"/>
+    <hyperlink ref="B159" r:id="rId158"/>
+    <hyperlink ref="B160" r:id="rId159"/>
+    <hyperlink ref="B161" r:id="rId160"/>
+    <hyperlink ref="B162" r:id="rId161"/>
+    <hyperlink ref="B163" r:id="rId162"/>
+    <hyperlink ref="B164" r:id="rId163"/>
+    <hyperlink ref="B165" r:id="rId164"/>
+    <hyperlink ref="B166" r:id="rId165"/>
+    <hyperlink ref="B167" r:id="rId166"/>
+    <hyperlink ref="B168" r:id="rId167"/>
+    <hyperlink ref="B169" r:id="rId168"/>
+    <hyperlink ref="B170" r:id="rId169"/>
+    <hyperlink ref="B171" r:id="rId170"/>
+    <hyperlink ref="B172" r:id="rId171"/>
+    <hyperlink ref="B173" r:id="rId172"/>
+    <hyperlink ref="B174" r:id="rId173"/>
+    <hyperlink ref="B175" r:id="rId174"/>
+    <hyperlink ref="B176" r:id="rId175"/>
+    <hyperlink ref="B177" r:id="rId176"/>
+    <hyperlink ref="B178" r:id="rId177"/>
+    <hyperlink ref="B179" r:id="rId178"/>
+    <hyperlink ref="B180" r:id="rId179"/>
+    <hyperlink ref="B181" r:id="rId180"/>
+    <hyperlink ref="B182" r:id="rId181"/>
+    <hyperlink ref="B183" r:id="rId182"/>
+    <hyperlink ref="B184" r:id="rId183"/>
+    <hyperlink ref="B185" r:id="rId184"/>
+    <hyperlink ref="B186" r:id="rId185"/>
+    <hyperlink ref="B187" r:id="rId186"/>
+    <hyperlink ref="B188" r:id="rId187"/>
+    <hyperlink ref="B189" r:id="rId188"/>
+    <hyperlink ref="B190" r:id="rId189"/>
+    <hyperlink ref="B191" r:id="rId190"/>
+    <hyperlink ref="B192" r:id="rId191"/>
+    <hyperlink ref="B193" r:id="rId192"/>
+    <hyperlink ref="B194" r:id="rId193"/>
+    <hyperlink ref="B195" r:id="rId194"/>
+    <hyperlink ref="B196" r:id="rId195"/>
+    <hyperlink ref="B197" r:id="rId196"/>
+    <hyperlink ref="B198" r:id="rId197"/>
+    <hyperlink ref="B199" r:id="rId198"/>
+    <hyperlink ref="B200" r:id="rId199"/>
+    <hyperlink ref="B201" r:id="rId200"/>
+    <hyperlink ref="B202" r:id="rId201"/>
+    <hyperlink ref="B203" r:id="rId202"/>
+    <hyperlink ref="B204" r:id="rId203"/>
+    <hyperlink ref="B205" r:id="rId204"/>
+    <hyperlink ref="B206" r:id="rId205"/>
+    <hyperlink ref="B207" r:id="rId206"/>
+    <hyperlink ref="B208" r:id="rId207"/>
+    <hyperlink ref="B209" r:id="rId208"/>
+    <hyperlink ref="B210" r:id="rId209"/>
+    <hyperlink ref="B211" r:id="rId210"/>
+    <hyperlink ref="B212" r:id="rId211"/>
+    <hyperlink ref="B213" r:id="rId212"/>
+    <hyperlink ref="B214" r:id="rId213"/>
+    <hyperlink ref="B215" r:id="rId214"/>
+    <hyperlink ref="B216" r:id="rId215"/>
+    <hyperlink ref="B217" r:id="rId216"/>
+    <hyperlink ref="B218" r:id="rId217"/>
+    <hyperlink ref="B219" r:id="rId218"/>
+    <hyperlink ref="B220" r:id="rId219"/>
+    <hyperlink ref="B221" r:id="rId220"/>
+    <hyperlink ref="B222" r:id="rId221"/>
+    <hyperlink ref="B223" r:id="rId222"/>
+    <hyperlink ref="B224" r:id="rId223"/>
+    <hyperlink ref="B225" r:id="rId224"/>
+    <hyperlink ref="B226" r:id="rId225"/>
+    <hyperlink ref="B227" r:id="rId226"/>
+    <hyperlink ref="B228" r:id="rId227"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId228"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>